--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1689661.936413707</v>
+        <v>1685403.674187233</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>394.5707037468443</v>
       </c>
       <c r="G2" t="n">
         <v>412.9288914861689</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.67958906395413</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>95.36752021794264</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>197.5339758908212</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>316.6911191207135</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>322.831097621644</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>45.09467781918966</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>118.382400600196</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>346.8110470046794</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>170.5361887950718</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,13 +1308,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>196.4339601978673</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.7694312401339</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>242.2547062148082</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>14.53306611597334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>76.17049831699767</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>243.1373908222617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>162.1944220709586</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>21.90286287505374</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976.43983132361</v>
+        <v>1715.762248365586</v>
       </c>
       <c r="C2" t="n">
-        <v>976.43983132361</v>
+        <v>1346.799731425174</v>
       </c>
       <c r="D2" t="n">
-        <v>976.43983132361</v>
+        <v>988.5340328184238</v>
       </c>
       <c r="E2" t="n">
-        <v>976.43983132361</v>
+        <v>988.5340328184238</v>
       </c>
       <c r="F2" t="n">
-        <v>565.4539265340024</v>
+        <v>589.97776640747</v>
       </c>
       <c r="G2" t="n">
-        <v>148.3540361439328</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="H2" t="n">
-        <v>148.3540361439328</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I2" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002398</v>
+        <v>240.350733390377</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745297</v>
+        <v>321.4042764948827</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896865</v>
+        <v>872.344728223462</v>
       </c>
       <c r="M2" t="n">
         <v>1322.822366070962</v>
@@ -4354,28 +4354,28 @@
         <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2479.413416894738</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T2" t="n">
-        <v>2479.413416894738</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="U2" t="n">
-        <v>2479.413416894738</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="V2" t="n">
-        <v>2479.413416894738</v>
+        <v>2089.228006626666</v>
       </c>
       <c r="W2" t="n">
-        <v>2126.644761624623</v>
+        <v>2089.228006626666</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.179003363543</v>
+        <v>1715.762248365586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.039671387732</v>
+        <v>1715.762248365586</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640339</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I3" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320004</v>
+        <v>323.4254327301628</v>
       </c>
       <c r="L3" t="n">
-        <v>516.9720371786859</v>
+        <v>459.2763250768484</v>
       </c>
       <c r="M3" t="n">
-        <v>1155.908502159403</v>
+        <v>1098.212790057566</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944261</v>
+        <v>1750.599124039308</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149934</v>
+        <v>2298.524363244981</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877467</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.904379724211</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>612.2271923180081</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C4" t="n">
-        <v>612.2271923180081</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D4" t="n">
-        <v>462.1105529056723</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E4" t="n">
-        <v>314.1974593232792</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F4" t="n">
-        <v>167.3075118253688</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
         <v>52.71808759448422</v>
@@ -4515,25 +4515,25 @@
         <v>1047.751684421857</v>
       </c>
       <c r="S4" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T4" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U4" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V4" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="W4" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="X4" t="n">
-        <v>612.2271923180081</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="Y4" t="n">
-        <v>612.2271923180081</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.939258071009</v>
+        <v>1589.779946879164</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.939258071009</v>
+        <v>1220.817429938752</v>
       </c>
       <c r="D5" t="n">
-        <v>1584.939258071009</v>
+        <v>862.5517313320015</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.151005472765</v>
+        <v>476.7634787337573</v>
       </c>
       <c r="F5" t="n">
-        <v>788.1651006831571</v>
+        <v>65.77757394414972</v>
       </c>
       <c r="G5" t="n">
-        <v>371.0652102930875</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002396</v>
       </c>
       <c r="K5" t="n">
         <v>474.9025859199828</v>
       </c>
       <c r="L5" t="n">
-        <v>612.3584352436161</v>
+        <v>1025.843037648562</v>
       </c>
       <c r="M5" t="n">
-        <v>1241.992388124892</v>
+        <v>1210.458592371934</v>
       </c>
       <c r="N5" t="n">
-        <v>1434.209023912141</v>
+        <v>1835.648683327047</v>
       </c>
       <c r="O5" t="n">
-        <v>1979.370660666636</v>
+        <v>2380.810320081542</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239693</v>
+        <v>2602.201833992998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140763</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="V5" t="n">
-        <v>2263.799931140763</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="W5" t="n">
-        <v>1911.031275870649</v>
+        <v>2283.135724454095</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.939258071009</v>
+        <v>1909.669966193016</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.939258071009</v>
+        <v>1909.669966193016</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642646</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640339</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815761</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320004</v>
+        <v>119.3005601895475</v>
       </c>
       <c r="L6" t="n">
-        <v>667.252839935339</v>
+        <v>351.9746989818015</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.189304916056</v>
+        <v>990.9111639625187</v>
       </c>
       <c r="N6" t="n">
-        <v>1958.575638897798</v>
+        <v>1643.297497944261</v>
       </c>
       <c r="O6" t="n">
-        <v>2506.500878103472</v>
+        <v>2191.222737149934</v>
       </c>
       <c r="P6" t="n">
         <v>2613.977979877467</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.2639748745722</v>
+        <v>417.3210895500699</v>
       </c>
       <c r="C7" t="n">
-        <v>364.2639748745722</v>
+        <v>248.384906622163</v>
       </c>
       <c r="D7" t="n">
-        <v>364.2639748745722</v>
+        <v>98.26826720982729</v>
       </c>
       <c r="E7" t="n">
-        <v>364.2639748745722</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>364.2639748745722</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>195.6516983569634</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>195.6516983569634</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919731</v>
+        <v>153.147531891973</v>
       </c>
       <c r="L7" t="n">
         <v>337.1890785482319</v>
@@ -4749,28 +4749,28 @@
         <v>1047.751684421857</v>
       </c>
       <c r="R7" t="n">
-        <v>917.0295025661735</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S7" t="n">
-        <v>709.4945613603418</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T7" t="n">
-        <v>483.8421572990127</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U7" t="n">
-        <v>483.8421572990127</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V7" t="n">
-        <v>483.8421572990127</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="W7" t="n">
-        <v>483.8421572990127</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="X7" t="n">
-        <v>364.2639748745722</v>
+        <v>819.7621335238398</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.2639748745722</v>
+        <v>598.9695543803097</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.8679068095125</v>
+        <v>1589.767838252667</v>
       </c>
       <c r="C8" t="n">
-        <v>801.8679068095125</v>
+        <v>1220.805321312255</v>
       </c>
       <c r="D8" t="n">
-        <v>801.8679068095125</v>
+        <v>862.5396227055045</v>
       </c>
       <c r="E8" t="n">
-        <v>416.0796542112683</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="F8" t="n">
-        <v>65.7654653176527</v>
+        <v>65.76546531765268</v>
       </c>
       <c r="G8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786752</v>
+        <v>73.95233758786749</v>
       </c>
       <c r="K8" t="n">
-        <v>477.419450607913</v>
+        <v>156.5154921624599</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.232708854112</v>
+        <v>295.844148003713</v>
       </c>
       <c r="M8" t="n">
-        <v>1216.93212167952</v>
+        <v>927.5619589870248</v>
       </c>
       <c r="N8" t="n">
-        <v>1844.239789739366</v>
+        <v>1414.252167842937</v>
       </c>
       <c r="O8" t="n">
-        <v>2391.400994506444</v>
+        <v>1961.413372610014</v>
       </c>
       <c r="P8" t="n">
-        <v>2502.13531975597</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724211</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724211</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724211</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.84149238064</v>
+        <v>2148.626454877467</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.072837110526</v>
+        <v>2148.626454877467</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.607078849446</v>
+        <v>2148.626454877467</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.467746873634</v>
+        <v>1976.367678316788</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416773</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578413</v>
+        <v>382.1464919002941</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>591.7438206217168</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.232796591064</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
-        <v>1917.619130572807</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2467.05513932553</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2575.744766852828</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>672.5861626095818</v>
+        <v>853.0553837790095</v>
       </c>
       <c r="C10" t="n">
-        <v>672.5861626095818</v>
+        <v>684.1192008511026</v>
       </c>
       <c r="D10" t="n">
-        <v>522.4695231972461</v>
+        <v>534.0025614387669</v>
       </c>
       <c r="E10" t="n">
-        <v>522.4695231972461</v>
+        <v>386.0894678563737</v>
       </c>
       <c r="F10" t="n">
-        <v>375.5795756993357</v>
+        <v>239.1995203584634</v>
       </c>
       <c r="G10" t="n">
-        <v>206.9727306947191</v>
+        <v>70.5926753538468</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>70.5926753538468</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>70.5926753538468</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -5001,13 +5001,13 @@
         <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>854.2346274398216</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>854.2346274398216</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>854.2346274398216</v>
+        <v>1034.703848609249</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5029,10 +5029,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1433.701365648819</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6703,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6840,16 +6840,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>481.447947124485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>481.447947124485</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>481.447947124485</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7548,19 +7548,19 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>405.7918549409329</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>268.547558711241</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93488262615338</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>293.3168899025753</v>
+        <v>459.9808678792267</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,22 +8221,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>306.6783761218476</v>
+        <v>113.4987613121494</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,22 +8297,22 @@
         <v>6.839178026546833</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>151.7987906632859</v>
+        <v>97.80125903592761</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792267</v>
+        <v>459.9808678792264</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>295.3090868322524</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>99.78276762287416</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,25 +8534,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>73.09871788457457</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243206</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.95094644515975</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>44.26829212178282</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.329716221310264</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>956591.5505751082</v>
+        <v>956591.550575108</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26346,13 +26346,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26374,7 +26374,7 @@
         <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663867</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>86566.12012538439</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-527171.2433767363</v>
+        <v>-527171.2433767361</v>
       </c>
       <c r="C6" t="n">
-        <v>262674.6897455036</v>
+        <v>262674.6897455037</v>
       </c>
       <c r="D6" t="n">
-        <v>260559.6979381284</v>
+        <v>260559.6979381286</v>
       </c>
       <c r="E6" t="n">
-        <v>-358388.9927900906</v>
+        <v>-358736.3720444476</v>
       </c>
       <c r="F6" t="n">
-        <v>417235.2794429019</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="G6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885446</v>
       </c>
       <c r="H6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885449</v>
       </c>
       <c r="I6" t="n">
-        <v>417235.2794429019</v>
+        <v>416887.9001885449</v>
       </c>
       <c r="J6" t="n">
-        <v>244818.1380607615</v>
+        <v>244470.7588064044</v>
       </c>
       <c r="K6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="L6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885448</v>
       </c>
       <c r="M6" t="n">
-        <v>289211.161976515</v>
+        <v>288863.782722158</v>
       </c>
       <c r="N6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="O6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885447</v>
       </c>
       <c r="P6" t="n">
-        <v>417235.2794429018</v>
+        <v>416887.9001885448</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12.30534199486715</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
-        <v>24.27860147473287</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>71.55863353449008</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
         <v>152.75990484659</v>
@@ -27560,7 +27560,7 @@
         <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>21.05067746127355</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>66.04272254276708</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I5" t="n">
         <v>118.958190538687</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>46.90000305682503</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>101.3392848273795</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>107.3272547888411</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>60.064998737032</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>215.7017498609818</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>90.08903813872371</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>200.8152221119609</v>
       </c>
     </row>
     <row r="11">
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32314,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,19 +33031,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,10 +34453,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428259</v>
+        <v>189.5279250463564</v>
       </c>
       <c r="K2" t="n">
         <v>81.87226576212697</v>
       </c>
       <c r="L2" t="n">
-        <v>544.6361471870271</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992686</v>
+        <v>455.0279170176771</v>
       </c>
       <c r="N2" t="n">
         <v>631.5051423789023</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358749</v>
+        <v>154.1899054494497</v>
       </c>
       <c r="L3" t="n">
         <v>137.2231235825107</v>
@@ -34789,16 +34789,16 @@
         <v>645.3903686673912</v>
       </c>
       <c r="N3" t="n">
-        <v>492.3121169544013</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="O3" t="n">
         <v>553.459837581488</v>
       </c>
       <c r="P3" t="n">
-        <v>427.025497704579</v>
+        <v>108.5627290646419</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307455</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>406.0176783332917</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460942</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992686</v>
+        <v>186.4803583064361</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1582179669181</v>
+        <v>631.5051423789023</v>
       </c>
       <c r="O5" t="n">
         <v>550.6683199540352</v>
       </c>
       <c r="P5" t="n">
-        <v>416.8074066394519</v>
+        <v>223.6277918297536</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459774</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358749</v>
+        <v>67.25502282329629</v>
       </c>
       <c r="L6" t="n">
-        <v>289.0219142457966</v>
+        <v>235.0243826184383</v>
       </c>
       <c r="M6" t="n">
         <v>645.3903686673912</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O6" t="n">
         <v>553.459837581488</v>
       </c>
       <c r="P6" t="n">
-        <v>108.5627290646419</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q6" t="n">
         <v>22.14787863307455</v>
@@ -35175,25 +35175,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>491.6062715716286</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.1202625941823</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>211.7144734559826</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310527</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>59.91755371988398</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,10 +38101,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1685403.674187233</v>
+        <v>1687164.204490018</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>366.4173298502121</v>
       </c>
       <c r="F2" t="n">
-        <v>394.5707037468443</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>83.42244391750918</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.5339758908212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>316.6911191207135</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.92889148616887</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.144438079204615</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>45.09467781918966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>124.3703705616576</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.9578707016483</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.5361887950718</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.7694312401339</v>
+        <v>184.6902077947043</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>42.71572132711237</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>261.9345988277395</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>242.2547062148082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.17049831699767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1715.762248365586</v>
+        <v>801.107288300318</v>
       </c>
       <c r="C2" t="n">
-        <v>1346.799731425174</v>
+        <v>801.107288300318</v>
       </c>
       <c r="D2" t="n">
-        <v>988.5340328184238</v>
+        <v>442.8415896935675</v>
       </c>
       <c r="E2" t="n">
-        <v>988.5340328184238</v>
+        <v>72.72307469335321</v>
       </c>
       <c r="F2" t="n">
-        <v>589.97776640747</v>
+        <v>65.77757394414974</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174004</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174004</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I2" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>240.350733390377</v>
+        <v>72.94508437002398</v>
       </c>
       <c r="K2" t="n">
-        <v>321.4042764948827</v>
+        <v>153.9986274745297</v>
       </c>
       <c r="L2" t="n">
-        <v>872.344728223462</v>
+        <v>704.9390792031089</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070962</v>
+        <v>1334.573032084385</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026075</v>
+        <v>1959.763123039498</v>
       </c>
       <c r="O2" t="n">
         <v>2493.17409378057</v>
@@ -4360,22 +4360,22 @@
         <v>2635.143761215016</v>
       </c>
       <c r="T2" t="n">
-        <v>2420.290893970237</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.290893970237</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.228006626666</v>
+        <v>2304.080873871445</v>
       </c>
       <c r="W2" t="n">
-        <v>2089.228006626666</v>
+        <v>1951.312218601331</v>
       </c>
       <c r="X2" t="n">
-        <v>1715.762248365586</v>
+        <v>1577.846460340251</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.762248365586</v>
+        <v>1187.70712836444</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352076</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K3" t="n">
-        <v>323.4254327301628</v>
+        <v>381.1211448320004</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2763250768484</v>
+        <v>884.1039790291106</v>
       </c>
       <c r="M3" t="n">
-        <v>1098.212790057566</v>
+        <v>1061.992430897328</v>
       </c>
       <c r="N3" t="n">
-        <v>1750.599124039308</v>
+        <v>1643.297497944261</v>
       </c>
       <c r="O3" t="n">
-        <v>2298.524363244981</v>
+        <v>2191.222737149934</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.904379724211</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.5739510150303</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="C4" t="n">
-        <v>497.6377680871234</v>
+        <v>963.4865895556862</v>
       </c>
       <c r="D4" t="n">
-        <v>347.5211286747877</v>
+        <v>813.3699501433505</v>
       </c>
       <c r="E4" t="n">
-        <v>199.6080350923946</v>
+        <v>665.4568565609574</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448422</v>
+        <v>518.566909063047</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448422</v>
+        <v>349.9546325454382</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>195.6516983569634</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="J4" t="n">
         <v>52.71808759448422</v>
@@ -4533,7 +4533,7 @@
         <v>1047.751684421857</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.22241584527</v>
+        <v>1047.751684421857</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.779946879164</v>
+        <v>799.9512902405154</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.817429938752</v>
+        <v>430.9887733001037</v>
       </c>
       <c r="D5" t="n">
-        <v>862.5517313320015</v>
+        <v>72.72307469335321</v>
       </c>
       <c r="E5" t="n">
-        <v>476.7634787337573</v>
+        <v>72.72307469335321</v>
       </c>
       <c r="F5" t="n">
-        <v>65.77757394414972</v>
+        <v>65.77757394414974</v>
       </c>
       <c r="G5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002396</v>
+        <v>240.350733390377</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199828</v>
+        <v>642.3082349403358</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648562</v>
+        <v>779.764084263969</v>
       </c>
       <c r="M5" t="n">
-        <v>1210.458592371934</v>
+        <v>964.3796389873407</v>
       </c>
       <c r="N5" t="n">
-        <v>1835.648683327047</v>
+        <v>1419.239895183002</v>
       </c>
       <c r="O5" t="n">
-        <v>2380.810320081542</v>
+        <v>1964.401531937497</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992998</v>
+        <v>2392.009993239693</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.90437972421</v>
+        <v>2633.987763155214</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.90437972421</v>
+        <v>2302.924875811643</v>
       </c>
       <c r="W5" t="n">
-        <v>2283.135724454095</v>
+        <v>1950.156220541529</v>
       </c>
       <c r="X5" t="n">
-        <v>1909.669966193016</v>
+        <v>1576.690462280449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1909.669966193016</v>
+        <v>1186.551130304637</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>199.824552964034</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815761</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3005601895475</v>
+        <v>499.1804835727238</v>
       </c>
       <c r="L6" t="n">
-        <v>351.9746989818015</v>
+        <v>1002.163317769834</v>
       </c>
       <c r="M6" t="n">
-        <v>990.9111639625187</v>
+        <v>1238.315708304462</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944261</v>
+        <v>1435.32098308577</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149934</v>
+        <v>1983.246222291443</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877467</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.904379724211</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.3210895500699</v>
+        <v>519.68400351712</v>
       </c>
       <c r="C7" t="n">
-        <v>248.384906622163</v>
+        <v>350.7478205892131</v>
       </c>
       <c r="D7" t="n">
-        <v>98.26826720982729</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="E7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.147531891973</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L7" t="n">
         <v>337.1890785482319</v>
@@ -4767,10 +4767,10 @@
         <v>1047.751684421857</v>
       </c>
       <c r="X7" t="n">
-        <v>819.7621335238398</v>
+        <v>922.1250474908899</v>
       </c>
       <c r="Y7" t="n">
-        <v>598.9695543803097</v>
+        <v>701.3324683473597</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.767838252667</v>
+        <v>1914.702160404829</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.805321312255</v>
+        <v>1914.702160404829</v>
       </c>
       <c r="D8" t="n">
-        <v>862.5396227055045</v>
+        <v>1556.436461798079</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7513701072602</v>
+        <v>1170.648209199834</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765268</v>
+        <v>759.6623044102269</v>
       </c>
       <c r="G8" t="n">
-        <v>52.7180875944842</v>
+        <v>342.5745226466543</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786749</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>460.9164311164315</v>
       </c>
       <c r="L8" t="n">
-        <v>295.844148003713</v>
+        <v>600.2450869576846</v>
       </c>
       <c r="M8" t="n">
-        <v>927.5619589870248</v>
+        <v>786.9444997830923</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842937</v>
+        <v>1414.252167842939</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610014</v>
+        <v>1961.413372610016</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2390.728418949311</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221038</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="T8" t="n">
-        <v>2479.689342221038</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="U8" t="n">
-        <v>2479.689342221038</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="V8" t="n">
-        <v>2148.626454877467</v>
+        <v>2304.841492380641</v>
       </c>
       <c r="W8" t="n">
-        <v>2148.626454877467</v>
+        <v>2304.841492380641</v>
       </c>
       <c r="X8" t="n">
-        <v>2148.626454877467</v>
+        <v>2304.841492380641</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.367678316788</v>
+        <v>1914.702160404829</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J9" t="n">
-        <v>52.7180875944842</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1464919002941</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>591.7438206217168</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
         <v>1232.289170088821</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>853.0553837790095</v>
+        <v>684.4485387743929</v>
       </c>
       <c r="C10" t="n">
-        <v>684.1192008511026</v>
+        <v>515.512355846486</v>
       </c>
       <c r="D10" t="n">
-        <v>534.0025614387669</v>
+        <v>365.3957164341503</v>
       </c>
       <c r="E10" t="n">
-        <v>386.0894678563737</v>
+        <v>217.4826228517572</v>
       </c>
       <c r="F10" t="n">
-        <v>239.1995203584634</v>
+        <v>70.59267535384684</v>
       </c>
       <c r="G10" t="n">
-        <v>70.5926753538468</v>
+        <v>70.59267535384684</v>
       </c>
       <c r="H10" t="n">
-        <v>70.5926753538468</v>
+        <v>70.59267535384684</v>
       </c>
       <c r="I10" t="n">
-        <v>70.5926753538468</v>
+        <v>70.59267535384684</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -5007,7 +5007,7 @@
         <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>1034.703848609249</v>
+        <v>866.0970036046326</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597677</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5737,25 +5737,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,22 +5834,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835331</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.07486885532</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6080,13 +6080,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6311,13 +6311,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6849,7 +6849,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7736,7 +7736,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>268.547558711241</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>368.9308216532274</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546833</v>
       </c>
       <c r="K3" t="n">
-        <v>86.93488262615338</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792267</v>
+        <v>388.1816083491161</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>265.2965862711237</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>113.4987613121494</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>97.80125903592761</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329940489</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792264</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>138.3790807410288</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>295.3090868322524</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>73.09871788457457</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>24.58839950885152</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>44.26829212178282</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>956591.550575108</v>
+        <v>956591.5505751082</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985041</v>
@@ -26340,22 +26340,22 @@
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="M2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329921</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663867</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26435,16 +26435,16 @@
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695079</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26456,10 +26456,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>86566.12012538439</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-527171.2433767361</v>
       </c>
       <c r="C6" t="n">
-        <v>262674.6897455037</v>
+        <v>262674.6897455039</v>
       </c>
       <c r="D6" t="n">
-        <v>260559.6979381286</v>
+        <v>260559.6979381287</v>
       </c>
       <c r="E6" t="n">
-        <v>-358736.3720444476</v>
+        <v>-358423.7307155262</v>
       </c>
       <c r="F6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.5415174658</v>
       </c>
       <c r="G6" t="n">
-        <v>416887.9001885446</v>
+        <v>417200.541517466</v>
       </c>
       <c r="H6" t="n">
-        <v>416887.9001885449</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="I6" t="n">
-        <v>416887.9001885449</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="J6" t="n">
-        <v>244470.7588064044</v>
+        <v>244783.4001353256</v>
       </c>
       <c r="K6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174658</v>
       </c>
       <c r="L6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="M6" t="n">
-        <v>288863.782722158</v>
+        <v>289176.4240510794</v>
       </c>
       <c r="N6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="O6" t="n">
-        <v>416887.9001885447</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="P6" t="n">
-        <v>416887.9001885448</v>
+        <v>417200.5415174662</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685955</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685959</v>
+        <v>513.7321931685955</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>15.51304022204965</v>
       </c>
       <c r="F2" t="n">
-        <v>12.30534199486715</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.82437718111865</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05067746127355</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.04272254276708</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>154.9260532011784</v>
@@ -27672,10 +27672,10 @@
         <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>250.0113071463146</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>101.3392848273795</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.3392848273796</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>28.08301337356721</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>215.7017498609818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8152221119609</v>
+        <v>33.89444555739044</v>
       </c>
     </row>
     <row r="11">
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31849,7 +31849,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,10 +32080,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34456,10 +34456,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463564</v>
+        <v>20.43130987428259</v>
       </c>
       <c r="K2" t="n">
         <v>81.87226576212697</v>
@@ -34707,13 +34707,13 @@
         <v>556.5055067965446</v>
       </c>
       <c r="M2" t="n">
-        <v>455.0279170176771</v>
+        <v>635.9938917992686</v>
       </c>
       <c r="N2" t="n">
         <v>631.5051423789023</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540352</v>
+        <v>538.7989603445172</v>
       </c>
       <c r="P2" t="n">
         <v>110.1290305176042</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.251857313862</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>154.1899054494497</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L3" t="n">
-        <v>137.2231235825107</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673912</v>
+        <v>179.6853049173913</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310527</v>
+        <v>587.1768354009421</v>
       </c>
       <c r="O3" t="n">
         <v>553.459837581488</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646419</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689237</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428259</v>
+        <v>189.5279250463564</v>
       </c>
       <c r="K5" t="n">
         <v>406.0176783332917</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965446</v>
+        <v>138.8442922460942</v>
       </c>
       <c r="M5" t="n">
         <v>186.4803583064361</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789023</v>
+        <v>459.4548042380418</v>
       </c>
       <c r="O5" t="n">
         <v>550.6683199540352</v>
       </c>
       <c r="P5" t="n">
-        <v>223.6277918297536</v>
+        <v>431.9277386890869</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607272</v>
+        <v>246.3579661459774</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329629</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L6" t="n">
-        <v>235.0243826184383</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673912</v>
+        <v>238.5377682167962</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310524</v>
+        <v>198.995227051826</v>
       </c>
       <c r="O6" t="n">
         <v>553.459837581488</v>
@@ -35035,7 +35035,7 @@
         <v>427.025497704579</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307455</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>221.7762065739504</v>
       </c>
       <c r="L8" t="n">
         <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>491.6062715716286</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>211.7144734559826</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
